--- a/formats/excel/MCO/2022/Formats RSA ANO 22.xlsx
+++ b/formats/excel/MCO/2022/Formats RSA ANO 22.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/MCO/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24A539A-A786-A848-91ED-B6131DD42045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F1106-24C3-9848-9B30-84F3BB9E7776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37320" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28000" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="281">
   <si>
     <t>libelle</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>NOANON</t>
-  </si>
-  <si>
-    <t>N° anonyme individuel</t>
-  </si>
-  <si>
-    <t>NOANONIND</t>
   </si>
   <si>
     <t>N° de séjour</t>
@@ -559,7 +553,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Facturation du</t>
     </r>
@@ -855,12 +849,6 @@
     <t>Filler2</t>
   </si>
   <si>
-    <t>Empreinte numérique</t>
-  </si>
-  <si>
-    <t>EMPNUM</t>
-  </si>
-  <si>
     <t>Zone chiffrée</t>
   </si>
   <si>
@@ -871,13 +859,46 @@
   </si>
   <si>
     <t>ILIASON</t>
+  </si>
+  <si>
+    <t>Filler01</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>DTNAIS</t>
+  </si>
+  <si>
+    <t>Filler02</t>
+  </si>
+  <si>
+    <t>Code retour contrôle "Identifant nationale de santé"</t>
+  </si>
+  <si>
+    <t>CRINS</t>
+  </si>
+  <si>
+    <t>CRART51</t>
+  </si>
+  <si>
+    <t>Code retour contrôle "Article 51"</t>
+  </si>
+  <si>
+    <t>ART51</t>
+  </si>
+  <si>
+    <t>Filler03</t>
+  </si>
+  <si>
+    <t>Filler04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -888,35 +909,35 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -930,8 +951,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +991,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,20 +1100,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,21 +1521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="1023" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,12 +1558,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>272</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1511,7 +1578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1531,11 +1598,11 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G34" si="0">D3+E3-E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G3:G36" si="0">D3+E3-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1679,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1775,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1799,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1823,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1847,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1867,232 +1934,227 @@
         <v>79</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+        <f>D17+E17-E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="26">
+        <v>60</v>
+      </c>
+      <c r="E18" s="26">
+        <v>80</v>
+      </c>
+      <c r="F18" s="27">
+        <v>139</v>
+      </c>
+      <c r="G18">
+        <f>D18+E18-E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="26">
+        <v>8</v>
+      </c>
+      <c r="E19" s="26">
+        <v>140</v>
+      </c>
+      <c r="F19" s="27">
+        <v>147</v>
+      </c>
+      <c r="G19">
+        <f>D19+E19-E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="26">
+        <v>9</v>
+      </c>
+      <c r="E20" s="26">
+        <v>148</v>
+      </c>
+      <c r="F20" s="27">
+        <v>156</v>
+      </c>
+      <c r="G20">
+        <f>D20+E20-E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3">
-        <v>80</v>
-      </c>
-      <c r="F18" s="6">
-        <v>96</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>157</v>
+      </c>
+      <c r="F21" s="6">
+        <v>161</v>
+      </c>
+      <c r="G21">
+        <f>D21+E21-E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>97</v>
-      </c>
-      <c r="F19" s="6">
-        <v>101</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="E20" s="3">
-        <v>102</v>
-      </c>
-      <c r="F20" s="6">
-        <v>111</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>112</v>
-      </c>
-      <c r="F21" s="6">
-        <v>119</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8</v>
-      </c>
       <c r="E22" s="3">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F22" s="6">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="F23" s="6">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
+    <row r="24" spans="1:7" ht="16">
+      <c r="A24" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F24" s="6">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="F25" s="6">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="F26" s="6">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
@@ -2101,22 +2163,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="F27" s="6">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>9</v>
@@ -2125,22 +2187,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="F28" s="6">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>9</v>
@@ -2149,22 +2211,22 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="F29" s="6">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="25">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>9</v>
@@ -2173,22 +2235,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F30" s="6">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>9</v>
@@ -2197,22 +2259,22 @@
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="F31" s="6">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
@@ -2221,22 +2283,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F32" s="6">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>9</v>
@@ -2245,22 +2307,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="F33" s="6">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>9</v>
@@ -2269,95 +2331,95 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="F34" s="6">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>198</v>
+      </c>
+      <c r="F35" s="6">
+        <v>198</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>199</v>
+      </c>
+      <c r="F36" s="6">
+        <v>199</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>200</v>
+      </c>
+      <c r="F37" s="6">
+        <v>200</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G68" si="1">D37+E37-E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16">
+      <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>140</v>
-      </c>
-      <c r="F35" s="6">
-        <v>140</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G66" si="1">D35+E35-E36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>141</v>
-      </c>
-      <c r="F36" s="6">
-        <v>141</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>142</v>
-      </c>
-      <c r="F37" s="6">
-        <v>142</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
@@ -2365,22 +2427,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="3">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="F38" s="6">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>81</v>
+    <row r="39" spans="1:7" ht="16">
+      <c r="A39" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>9</v>
@@ -2389,22 +2451,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="F39" s="6">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>83</v>
+    <row r="40" spans="1:7" ht="16">
+      <c r="A40" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>9</v>
@@ -2413,22 +2475,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="3">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="F40" s="6">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>9</v>
@@ -2437,22 +2499,22 @@
         <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="F41" s="6">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>9</v>
@@ -2461,22 +2523,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="F42" s="6">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>9</v>
@@ -2485,22 +2547,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="F43" s="6">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>9</v>
@@ -2509,22 +2571,22 @@
         <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="F44" s="6">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>9</v>
@@ -2533,22 +2595,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="3">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F45" s="6">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
@@ -2557,22 +2619,22 @@
         <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="F46" s="6">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>9</v>
@@ -2581,22 +2643,22 @@
         <v>1</v>
       </c>
       <c r="E47" s="3">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="F47" s="6">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>9</v>
@@ -2605,22 +2667,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="F48" s="6">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>9</v>
@@ -2629,22 +2691,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="F49" s="6">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>9</v>
@@ -2653,22 +2715,22 @@
         <v>1</v>
       </c>
       <c r="E50" s="3">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="F50" s="6">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>105</v>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>9</v>
@@ -2677,46 +2739,46 @@
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="F51" s="6">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>107</v>
+    <row r="52" spans="1:7" ht="16">
+      <c r="A52" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="6">
         <v>1</v>
       </c>
       <c r="E52" s="3">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F52" s="6">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>109</v>
+    <row r="53" spans="1:7" ht="16">
+      <c r="A53" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>9</v>
@@ -2725,70 +2787,70 @@
         <v>1</v>
       </c>
       <c r="E53" s="3">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="F53" s="6">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>111</v>
+    <row r="54" spans="1:7" ht="24">
+      <c r="A54" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="3">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="F54" s="6">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>113</v>
+    <row r="55" spans="1:7" ht="16">
+      <c r="A55" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="6">
         <v>1</v>
       </c>
       <c r="E55" s="3">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="F55" s="6">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>9</v>
@@ -2797,22 +2859,22 @@
         <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="F56" s="6">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="16">
       <c r="A57" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>9</v>
@@ -2821,22 +2883,22 @@
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="F57" s="6">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>9</v>
@@ -2845,22 +2907,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="3">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F58" s="6">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="16">
       <c r="A59" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>9</v>
@@ -2869,22 +2931,22 @@
         <v>1</v>
       </c>
       <c r="E59" s="3">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="F59" s="6">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>9</v>
@@ -2893,22 +2955,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="3">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="F60" s="6">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>9</v>
@@ -2917,22 +2979,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="3">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="F61" s="6">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>9</v>
@@ -2941,22 +3003,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="3">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="F62" s="6">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="16">
       <c r="A63" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>9</v>
@@ -2965,70 +3027,70 @@
         <v>1</v>
       </c>
       <c r="E63" s="3">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="F63" s="6">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>132</v>
+    <row r="64" spans="1:7" ht="16">
+      <c r="A64" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="17">
-        <v>1</v>
-      </c>
-      <c r="E64" s="8">
-        <v>169</v>
-      </c>
-      <c r="F64" s="18">
-        <v>169</v>
+      <c r="D64" s="14">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>227</v>
+      </c>
+      <c r="F64" s="6">
+        <v>227</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>134</v>
+    <row r="65" spans="1:7" ht="16">
+      <c r="A65" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="17">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8">
-        <v>170</v>
-      </c>
-      <c r="F65" s="18">
-        <v>170</v>
+      <c r="D65" s="14">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>228</v>
+      </c>
+      <c r="F65" s="6">
+        <v>228</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="16">
       <c r="A66" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>9</v>
@@ -3037,1220 +3099,1287 @@
         <v>1</v>
       </c>
       <c r="E66" s="8">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="F66" s="18">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="16">
       <c r="A67" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8">
+        <v>230</v>
+      </c>
+      <c r="F67" s="18">
+        <v>230</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16">
+      <c r="A68" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>231</v>
+      </c>
+      <c r="F68" s="18">
+        <v>231</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16">
+      <c r="A69" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="17">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8">
+        <v>232</v>
+      </c>
+      <c r="F69" s="18">
+        <v>232</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G132" si="2">D69+E69-E70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16">
+      <c r="A70" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8">
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="17">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8">
+        <v>233</v>
+      </c>
+      <c r="F70" s="18">
+        <v>233</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16">
+      <c r="A71" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="17">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8">
+        <v>234</v>
+      </c>
+      <c r="F71" s="18">
+        <v>234</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="16">
+      <c r="A72" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="17">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>235</v>
+      </c>
+      <c r="F72" s="18">
+        <v>235</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="16">
+      <c r="A73" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="17">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8">
+        <v>236</v>
+      </c>
+      <c r="F73" s="18">
+        <v>236</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16">
+      <c r="A74" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <v>237</v>
+      </c>
+      <c r="F74" s="18">
+        <v>237</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16">
+      <c r="A75" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
+        <v>238</v>
+      </c>
+      <c r="F75" s="18">
+        <v>238</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="16">
+      <c r="A76" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="17">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <v>239</v>
+      </c>
+      <c r="F76" s="18">
+        <v>239</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16">
+      <c r="A77" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="17">
+        <v>1</v>
+      </c>
+      <c r="E77" s="8">
+        <v>240</v>
+      </c>
+      <c r="F77" s="18">
+        <v>240</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16">
+      <c r="A78" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="17">
+        <v>1</v>
+      </c>
+      <c r="E78" s="8">
+        <v>241</v>
+      </c>
+      <c r="F78" s="18">
+        <v>241</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16">
+      <c r="A79" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="31">
+        <v>1</v>
+      </c>
+      <c r="E79" s="32">
+        <v>242</v>
+      </c>
+      <c r="F79" s="33">
+        <v>242</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16">
+      <c r="A80" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1</v>
+      </c>
+      <c r="E80" s="32">
+        <v>243</v>
+      </c>
+      <c r="F80" s="33">
+        <v>243</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16">
+      <c r="B81" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="31">
+        <v>30</v>
+      </c>
+      <c r="E81" s="32">
+        <v>244</v>
+      </c>
+      <c r="F81" s="33">
+        <v>273</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16">
+      <c r="A82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6">
+        <v>2</v>
+      </c>
+      <c r="E82" s="34">
+        <f t="shared" ref="E82:E137" si="3">F81+1</f>
+        <v>274</v>
+      </c>
+      <c r="F82" s="34">
+        <f t="shared" ref="F82:F137" si="4">E82+D82-1</f>
+        <v>275</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16">
+      <c r="A83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="6">
+        <v>2</v>
+      </c>
+      <c r="E83" s="34">
+        <f t="shared" si="3"/>
+        <v>276</v>
+      </c>
+      <c r="F83" s="34">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16">
+      <c r="A84" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="34">
+        <f t="shared" si="3"/>
+        <v>278</v>
+      </c>
+      <c r="F84" s="34">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16">
+      <c r="A85" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="20">
+        <v>1</v>
+      </c>
+      <c r="E85" s="34">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="F85" s="34">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16">
+      <c r="A86" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="20">
+        <v>2</v>
+      </c>
+      <c r="E86" s="34">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="F86" s="34">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="16">
+      <c r="A87" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="20">
+        <v>2</v>
+      </c>
+      <c r="E87" s="34">
+        <f t="shared" si="3"/>
+        <v>282</v>
+      </c>
+      <c r="F87" s="34">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="16">
+      <c r="A88" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="20">
+        <v>1</v>
+      </c>
+      <c r="E88" s="34">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+      <c r="F88" s="34">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="16">
+      <c r="A89" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="34">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="F89" s="34">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="16">
+      <c r="A90" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="18">
-        <v>172</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G98" si="2">D67+E67-E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="17">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8">
+      <c r="C90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="34">
+        <f t="shared" si="3"/>
+        <v>286</v>
+      </c>
+      <c r="F90" s="34">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16">
+      <c r="A91" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F68" s="18">
-        <v>173</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="17">
-        <v>1</v>
-      </c>
-      <c r="E69" s="8">
+      <c r="B91" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F69" s="18">
-        <v>174</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="17">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8">
+      <c r="C91" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="6">
+        <v>4</v>
+      </c>
+      <c r="E91" s="34">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="F91" s="34">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16">
+      <c r="A92" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F70" s="18">
-        <v>175</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="17">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8">
+      <c r="B92" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F71" s="18">
-        <v>176</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72" s="8">
+      <c r="C92" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="18">
+      <c r="D92" s="6">
+        <v>10</v>
+      </c>
+      <c r="E92" s="34">
+        <f t="shared" si="3"/>
+        <v>291</v>
+      </c>
+      <c r="F92" s="34">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="16">
+      <c r="A93" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73" s="8">
-        <v>178</v>
-      </c>
-      <c r="F73" s="18">
-        <v>178</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="17">
-        <v>1</v>
-      </c>
-      <c r="E74" s="8">
-        <v>179</v>
-      </c>
-      <c r="F74" s="18">
-        <v>179</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="17">
-        <v>1</v>
-      </c>
-      <c r="E75" s="8">
+      <c r="D93" s="6">
+        <v>10</v>
+      </c>
+      <c r="E93" s="34">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="F93" s="34">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="25">
+      <c r="A94" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F75" s="18">
-        <v>180</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="17">
-        <v>1</v>
-      </c>
-      <c r="E76" s="8">
+      <c r="B94" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F76" s="18">
-        <v>181</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="C94" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="6">
+        <v>10</v>
+      </c>
+      <c r="E94" s="34">
+        <f t="shared" si="3"/>
+        <v>311</v>
+      </c>
+      <c r="F94" s="34">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="16">
+      <c r="A95" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F77" s="6">
+      <c r="B95" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="6">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3">
+      <c r="C95" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="6">
+        <v>4</v>
+      </c>
+      <c r="E95" s="34">
+        <f t="shared" si="3"/>
+        <v>321</v>
+      </c>
+      <c r="F95" s="34">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="16">
+      <c r="A96" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F78" s="6">
+      <c r="B96" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="C96" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="6">
+        <v>10</v>
+      </c>
+      <c r="E96" s="34">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="F96" s="34">
+        <f t="shared" si="4"/>
+        <v>334</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16">
+      <c r="A97" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="6">
-        <v>186</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="20">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="B97" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="6">
-        <v>187</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="20">
-        <v>2</v>
-      </c>
-      <c r="E81" s="20">
+      <c r="C97" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" s="6">
+        <v>5</v>
+      </c>
+      <c r="E97" s="34">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="F97" s="34">
+        <f t="shared" si="4"/>
+        <v>339</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16">
+      <c r="A98" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="20">
+      <c r="B98" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="20">
-        <v>2</v>
-      </c>
-      <c r="E82" s="20">
+      <c r="C98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="34">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="F98" s="34">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16">
+      <c r="A99" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="20">
+      <c r="B99" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="20">
-        <v>1</v>
-      </c>
-      <c r="E83" s="20">
+      <c r="C99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="21">
+        <v>32</v>
+      </c>
+      <c r="E99" s="34">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="F99" s="34">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="16">
+      <c r="A100" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="20">
-        <v>192</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="B100" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F84" s="3">
-        <v>193</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="C100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="6">
+        <v>32</v>
+      </c>
+      <c r="E100" s="34">
+        <f t="shared" si="3"/>
+        <v>373</v>
+      </c>
+      <c r="F100" s="34">
+        <f t="shared" si="4"/>
+        <v>404</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16">
+      <c r="A101" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F85" s="3">
-        <v>194</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="6">
+      <c r="B101" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="34">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="F101" s="34">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16">
+      <c r="A102" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E102" s="34">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="F102" s="34">
+        <f t="shared" si="4"/>
+        <v>406</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="16">
+      <c r="A103" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="6">
+        <v>8</v>
+      </c>
+      <c r="E103" s="34">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="F103" s="34">
+        <f t="shared" si="4"/>
+        <v>414</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="16">
+      <c r="A104" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="6">
+        <v>10</v>
+      </c>
+      <c r="E104" s="34">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="F104" s="34">
+        <f t="shared" si="4"/>
+        <v>424</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="16">
+      <c r="A105" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+      <c r="E105" s="34">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="F105" s="34">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="16">
+      <c r="A106" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="18">
+        <v>5</v>
+      </c>
+      <c r="E106" s="34">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="F106" s="34">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="16">
+      <c r="A107" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="18">
+        <v>1</v>
+      </c>
+      <c r="E107" s="34">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="F107" s="34">
+        <f t="shared" si="4"/>
+        <v>431</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="16">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3</v>
+      </c>
+      <c r="E108" s="34">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="F108" s="34">
+        <f t="shared" si="4"/>
+        <v>434</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16">
+      <c r="A109" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="6">
+        <v>1</v>
+      </c>
+      <c r="E109" s="34">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="F109" s="34">
+        <f t="shared" si="4"/>
+        <v>435</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16">
+      <c r="A110" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="6">
+        <v>3</v>
+      </c>
+      <c r="E110" s="34">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="F110" s="34">
+        <f t="shared" si="4"/>
+        <v>438</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="16">
+      <c r="A111" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="6">
+        <v>3</v>
+      </c>
+      <c r="E111" s="34">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="F111" s="34">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="16">
+      <c r="A112" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="6">
         <v>4</v>
       </c>
-      <c r="E86" s="3">
-        <v>195</v>
-      </c>
-      <c r="F86" s="3">
-        <v>198</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="6">
+      <c r="E112" s="34">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="F112" s="34">
+        <f t="shared" si="4"/>
+        <v>445</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16">
+      <c r="A113" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="34">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="F113" s="34">
+        <f t="shared" si="4"/>
+        <v>446</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16">
+      <c r="A114" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="6">
+        <v>9</v>
+      </c>
+      <c r="E114" s="34">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="F114" s="34">
+        <f t="shared" si="4"/>
+        <v>455</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16">
+      <c r="A115" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="6">
         <v>10</v>
       </c>
-      <c r="E87" s="3">
-        <v>199</v>
-      </c>
-      <c r="F87" s="3">
-        <v>208</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="6">
-        <v>10</v>
-      </c>
-      <c r="E88" s="3">
-        <v>209</v>
-      </c>
-      <c r="F88" s="3">
-        <v>218</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="25" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="6">
-        <v>10</v>
-      </c>
-      <c r="E89" s="3">
-        <v>219</v>
-      </c>
-      <c r="F89" s="3">
-        <v>228</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="6">
-        <v>4</v>
-      </c>
-      <c r="E90" s="3">
-        <v>229</v>
-      </c>
-      <c r="F90" s="3">
-        <v>232</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" s="6">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3">
-        <v>233</v>
-      </c>
-      <c r="F91" s="3">
-        <v>242</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="6">
-        <v>5</v>
-      </c>
-      <c r="E92" s="3">
-        <v>243</v>
-      </c>
-      <c r="F92" s="3">
-        <v>247</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
-        <v>248</v>
-      </c>
-      <c r="F93" s="3">
-        <v>248</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="21">
-        <v>32</v>
-      </c>
-      <c r="E94" s="22">
-        <v>249</v>
-      </c>
-      <c r="F94" s="22">
-        <v>280</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="6">
-        <v>32</v>
-      </c>
-      <c r="E95" s="22">
-        <v>281</v>
-      </c>
-      <c r="F95" s="22">
-        <v>312</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1</v>
-      </c>
-      <c r="E96" s="22">
-        <v>313</v>
-      </c>
-      <c r="F96" s="22">
-        <v>313</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>314</v>
-      </c>
-      <c r="F97" s="3">
-        <v>314</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="6">
-        <v>8</v>
-      </c>
-      <c r="E98" s="3">
-        <v>315</v>
-      </c>
-      <c r="F98" s="3">
-        <v>322</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" s="6">
-        <v>10</v>
-      </c>
-      <c r="E99" s="3">
-        <v>323</v>
-      </c>
-      <c r="F99" s="3">
-        <v>332</v>
-      </c>
-      <c r="G99">
-        <f t="shared" ref="G99:G134" si="3">D99+E99-E100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="6">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3">
-        <v>333</v>
-      </c>
-      <c r="F100" s="3">
-        <v>333</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="18">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>334</v>
-      </c>
-      <c r="F101" s="3">
-        <v>338</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="18">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3">
-        <v>339</v>
-      </c>
-      <c r="F102" s="3">
-        <v>339</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="6">
-        <v>3</v>
-      </c>
-      <c r="E103" s="3">
-        <v>340</v>
-      </c>
-      <c r="F103" s="3">
-        <v>342</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="6">
-        <v>1</v>
-      </c>
-      <c r="E104" s="3">
-        <v>343</v>
-      </c>
-      <c r="F104" s="3">
-        <v>343</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="6">
-        <v>3</v>
-      </c>
-      <c r="E105" s="3">
-        <v>344</v>
-      </c>
-      <c r="F105" s="3">
-        <v>346</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="6">
-        <v>3</v>
-      </c>
-      <c r="E106" s="3">
-        <v>347</v>
-      </c>
-      <c r="F106" s="3">
-        <v>349</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="6">
-        <v>4</v>
-      </c>
-      <c r="E107" s="3">
-        <v>350</v>
-      </c>
-      <c r="F107" s="3">
-        <v>353</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="6">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3">
-        <v>354</v>
-      </c>
-      <c r="F108" s="3">
-        <v>354</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="6">
-        <v>9</v>
-      </c>
-      <c r="E109" s="3">
-        <v>355</v>
-      </c>
-      <c r="F109" s="3">
-        <v>363</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+      <c r="E115" s="34">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="F115" s="34">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="6">
-        <v>10</v>
-      </c>
-      <c r="E110" s="3">
-        <v>364</v>
-      </c>
-      <c r="F110" s="3">
-        <v>373</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="18" t="s">
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="34">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+      <c r="F116" s="34">
+        <f t="shared" si="4"/>
+        <v>466</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>374</v>
-      </c>
-      <c r="F111" s="3">
-        <v>374</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="6">
-        <v>8</v>
-      </c>
-      <c r="E112" s="3">
-        <v>375</v>
-      </c>
-      <c r="F112" s="3">
-        <v>382</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="6">
-        <v>8</v>
-      </c>
-      <c r="E113" s="3">
-        <v>383</v>
-      </c>
-      <c r="F113" s="3">
-        <v>390</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="6">
-        <v>3</v>
-      </c>
-      <c r="E114" s="3">
-        <v>391</v>
-      </c>
-      <c r="F114" s="3">
-        <v>393</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="6">
-        <v>3</v>
-      </c>
-      <c r="E115" s="3">
-        <v>394</v>
-      </c>
-      <c r="F115" s="3">
-        <v>396</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="6">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3">
-        <v>397</v>
-      </c>
-      <c r="F116" s="3">
-        <v>397</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -4258,23 +4387,25 @@
       <c r="D117" s="6">
         <v>8</v>
       </c>
-      <c r="E117" s="3">
-        <v>398</v>
-      </c>
-      <c r="F117" s="3">
-        <v>405</v>
+      <c r="E117" s="34">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="F117" s="34">
+        <f t="shared" si="4"/>
+        <v>474</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="18" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -4282,397 +4413,583 @@
       <c r="D118" s="6">
         <v>8</v>
       </c>
-      <c r="E118" s="3">
-        <v>406</v>
-      </c>
-      <c r="F118" s="3">
-        <v>413</v>
+      <c r="E118" s="34">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="F118" s="34">
+        <f t="shared" si="4"/>
+        <v>482</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="6">
+        <v>3</v>
+      </c>
+      <c r="E119" s="34">
+        <f t="shared" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="F119" s="34">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="6">
+        <v>3</v>
+      </c>
+      <c r="E120" s="34">
+        <f t="shared" si="3"/>
+        <v>486</v>
+      </c>
+      <c r="F120" s="34">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="34">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="F121" s="34">
+        <f t="shared" si="4"/>
+        <v>489</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="6">
+        <v>8</v>
+      </c>
+      <c r="E122" s="34">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="F122" s="34">
+        <f t="shared" si="4"/>
+        <v>497</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="6">
+        <v>8</v>
+      </c>
+      <c r="E123" s="34">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="F123" s="34">
+        <f t="shared" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="16">
+      <c r="A124" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" t="s">
+        <v>177</v>
+      </c>
+      <c r="D124" s="22">
+        <v>8</v>
+      </c>
+      <c r="E124" s="34">
+        <f t="shared" si="3"/>
+        <v>506</v>
+      </c>
+      <c r="F124" s="34">
+        <f t="shared" si="4"/>
+        <v>513</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="16">
+      <c r="A125" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B125" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C119" t="s">
-        <v>179</v>
-      </c>
-      <c r="D119" s="23">
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="22">
+        <v>1</v>
+      </c>
+      <c r="E125" s="34">
+        <f t="shared" si="3"/>
+        <v>514</v>
+      </c>
+      <c r="F125" s="34">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="16">
+      <c r="A126" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="22">
         <v>8</v>
       </c>
-      <c r="E119" s="24">
-        <v>414</v>
-      </c>
-      <c r="F119" s="24">
-        <v>421</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="23">
-        <v>1</v>
-      </c>
-      <c r="E120" s="24">
-        <v>422</v>
-      </c>
-      <c r="F120" s="24">
-        <v>422</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="s">
+      <c r="E126" s="34">
+        <f t="shared" si="3"/>
+        <v>515</v>
+      </c>
+      <c r="F126" s="34">
+        <f t="shared" si="4"/>
+        <v>522</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="16">
+      <c r="A127" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B127" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="23">
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="22">
         <v>8</v>
       </c>
-      <c r="E121" s="24">
-        <v>423</v>
-      </c>
-      <c r="F121" s="24">
-        <v>430</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="s">
+      <c r="E127" s="34">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="F127" s="34">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16">
+      <c r="A128" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B128" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="23">
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="22">
         <v>8</v>
       </c>
-      <c r="E122" s="24">
-        <v>431</v>
-      </c>
-      <c r="F122" s="24">
-        <v>438</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="s">
+      <c r="E128" s="34">
+        <f t="shared" si="3"/>
+        <v>531</v>
+      </c>
+      <c r="F128" s="34">
+        <f t="shared" si="4"/>
+        <v>538</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16">
+      <c r="A129" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B129" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="23">
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="22">
         <v>8</v>
       </c>
-      <c r="E123" s="24">
-        <v>439</v>
-      </c>
-      <c r="F123" s="24">
-        <v>446</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
+      <c r="E129" s="34">
+        <f t="shared" si="3"/>
+        <v>539</v>
+      </c>
+      <c r="F129" s="34">
+        <f t="shared" si="4"/>
+        <v>546</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="16">
+      <c r="A130" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B130" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="23">
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="22">
         <v>8</v>
       </c>
-      <c r="E124" s="24">
-        <v>447</v>
-      </c>
-      <c r="F124" s="24">
-        <v>454</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="s">
+      <c r="E130" s="34">
+        <f t="shared" si="3"/>
+        <v>547</v>
+      </c>
+      <c r="F130" s="34">
+        <f t="shared" si="4"/>
+        <v>554</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16">
+      <c r="A131" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B131" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="23">
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="22">
         <v>8</v>
       </c>
-      <c r="E125" s="24">
-        <v>455</v>
-      </c>
-      <c r="F125" s="24">
-        <v>462</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="s">
+      <c r="E131" s="34">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
+      <c r="F131" s="34">
+        <f t="shared" si="4"/>
+        <v>562</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16">
+      <c r="A132" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B132" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="23">
-        <v>8</v>
-      </c>
-      <c r="E126" s="24">
-        <v>463</v>
-      </c>
-      <c r="F126" s="24">
-        <v>470</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="s">
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="22">
+        <v>1</v>
+      </c>
+      <c r="E132" s="34">
+        <f t="shared" si="3"/>
+        <v>563</v>
+      </c>
+      <c r="F132" s="34">
+        <f t="shared" si="4"/>
+        <v>563</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="16">
+      <c r="A133" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B133" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="23">
-        <v>1</v>
-      </c>
-      <c r="E127" s="24">
-        <v>471</v>
-      </c>
-      <c r="F127" s="24">
-        <v>471</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="23" t="s">
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="22">
+        <v>1</v>
+      </c>
+      <c r="E133" s="34">
+        <f t="shared" si="3"/>
+        <v>564</v>
+      </c>
+      <c r="F133" s="34">
+        <f t="shared" si="4"/>
+        <v>564</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ref="G133:G140" si="5">D133+E133-E134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="16">
+      <c r="A134" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B134" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="23">
-        <v>1</v>
-      </c>
-      <c r="E128" s="24">
-        <v>472</v>
-      </c>
-      <c r="F128" s="24">
-        <v>472</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="23" t="s">
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="22">
+        <v>1</v>
+      </c>
+      <c r="E134" s="34">
+        <f t="shared" si="3"/>
+        <v>565</v>
+      </c>
+      <c r="F134" s="34">
+        <f t="shared" si="4"/>
+        <v>565</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="16">
+      <c r="A135" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B135" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="23">
-        <v>1</v>
-      </c>
-      <c r="E129" s="24">
-        <v>473</v>
-      </c>
-      <c r="F129" s="24">
-        <v>473</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="s">
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="22">
+        <v>3</v>
+      </c>
+      <c r="E135" s="34">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="F135" s="34">
+        <f t="shared" si="4"/>
+        <v>568</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="16">
+      <c r="A136" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B136" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="23">
-        <v>3</v>
-      </c>
-      <c r="E130" s="24">
-        <v>474</v>
-      </c>
-      <c r="F130" s="24">
-        <v>476</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="25" t="s">
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="35">
+        <v>44</v>
+      </c>
+      <c r="E136" s="34">
+        <f t="shared" si="3"/>
+        <v>569</v>
+      </c>
+      <c r="F136" s="34">
+        <f t="shared" si="4"/>
+        <v>612</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="18"/>
+      <c r="B137" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="34">
+        <v>64</v>
+      </c>
+      <c r="E137" s="34">
+        <f t="shared" si="3"/>
+        <v>613</v>
+      </c>
+      <c r="F137" s="34">
+        <f t="shared" si="4"/>
+        <v>676</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="34">
+        <v>1</v>
+      </c>
+      <c r="E138" s="34">
+        <v>677</v>
+      </c>
+      <c r="F138" s="34">
+        <v>677</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="18"/>
+      <c r="B139" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="6">
+        <v>82</v>
+      </c>
+      <c r="E139" s="3">
+        <v>678</v>
+      </c>
+      <c r="F139" s="3">
+        <v>759</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="23">
-        <v>44</v>
-      </c>
-      <c r="E131" s="24">
-        <v>477</v>
-      </c>
-      <c r="F131" s="24">
-        <v>520</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="18"/>
-      <c r="B132" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="6">
-        <v>18</v>
-      </c>
-      <c r="E132" s="3">
-        <v>521</v>
-      </c>
-      <c r="F132" s="3">
-        <v>538</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="6">
-        <v>64</v>
-      </c>
-      <c r="E133" s="3">
-        <v>539</v>
-      </c>
-      <c r="F133" s="3">
-        <v>602</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="6">
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="6">
         <v>344</v>
       </c>
-      <c r="E134" s="3">
-        <v>603</v>
-      </c>
-      <c r="F134" s="3">
-        <v>946</v>
+      <c r="E140" s="3">
+        <v>760</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1103</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="5"/>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
